--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H2">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7618441652338</v>
+        <v>2.814284333333333</v>
       </c>
       <c r="N2">
-        <v>2.7618441652338</v>
+        <v>8.442852999999999</v>
       </c>
       <c r="O2">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964763</v>
       </c>
       <c r="P2">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964762</v>
       </c>
       <c r="Q2">
-        <v>5.014385049560886</v>
+        <v>1.188536064411555</v>
       </c>
       <c r="R2">
-        <v>5.014385049560886</v>
+        <v>10.696824579704</v>
       </c>
       <c r="S2">
-        <v>0.784134034460321</v>
+        <v>0.1279769459632965</v>
       </c>
       <c r="T2">
-        <v>0.784134034460321</v>
+        <v>0.1279769459632965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H3">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.415942362925928</v>
+        <v>0.1814093333333333</v>
       </c>
       <c r="N3">
-        <v>0.415942362925928</v>
+        <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963387</v>
       </c>
       <c r="P3">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963386</v>
       </c>
       <c r="Q3">
-        <v>0.7551820600125134</v>
+        <v>0.07661327341155554</v>
       </c>
       <c r="R3">
-        <v>0.7551820600125134</v>
+        <v>0.6895194607039998</v>
       </c>
       <c r="S3">
-        <v>0.1180930362580601</v>
+        <v>0.008249419639038242</v>
       </c>
       <c r="T3">
-        <v>0.1180930362580601</v>
+        <v>0.008249419639038242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.196752963708953</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H4">
-        <v>0.196752963708953</v>
+        <v>1.266968</v>
       </c>
       <c r="I4">
-        <v>0.09777292928161892</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J4">
-        <v>0.09777292928161892</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.7618441652338</v>
+        <v>0.6911273333333333</v>
       </c>
       <c r="N4">
-        <v>2.7618441652338</v>
+        <v>2.073382</v>
       </c>
       <c r="O4">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="P4">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="Q4">
-        <v>0.5434010248120295</v>
+        <v>0.2918787384195555</v>
       </c>
       <c r="R4">
-        <v>0.5434010248120295</v>
+        <v>2.626908645776</v>
       </c>
       <c r="S4">
-        <v>0.08497537259390232</v>
+        <v>0.03142836860659207</v>
       </c>
       <c r="T4">
-        <v>0.08497537259390232</v>
+        <v>0.03142836860659208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H5">
+        <v>5.624959</v>
+      </c>
+      <c r="I5">
+        <v>0.7443368783435028</v>
+      </c>
+      <c r="J5">
+        <v>0.7443368783435029</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.814284333333333</v>
+      </c>
+      <c r="N5">
+        <v>8.442852999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.7633363087964763</v>
+      </c>
+      <c r="P5">
+        <v>0.7633363087964762</v>
+      </c>
+      <c r="Q5">
+        <v>5.276744663114111</v>
+      </c>
+      <c r="R5">
+        <v>47.490701968027</v>
+      </c>
+      <c r="S5">
+        <v>0.5681793652158212</v>
+      </c>
+      <c r="T5">
+        <v>0.5681793652158212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H6">
+        <v>5.624959</v>
+      </c>
+      <c r="I6">
+        <v>0.7443368783435028</v>
+      </c>
+      <c r="J6">
+        <v>0.7443368783435029</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.04920481176963387</v>
+      </c>
+      <c r="P6">
+        <v>0.04920481176963386</v>
+      </c>
+      <c r="Q6">
+        <v>0.3401400207391111</v>
+      </c>
+      <c r="R6">
+        <v>3.061260186652</v>
+      </c>
+      <c r="S6">
+        <v>0.03662495599208893</v>
+      </c>
+      <c r="T6">
+        <v>0.03662495599208893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H7">
+        <v>5.624959</v>
+      </c>
+      <c r="I7">
+        <v>0.7443368783435028</v>
+      </c>
+      <c r="J7">
+        <v>0.7443368783435029</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6911273333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.073382</v>
+      </c>
+      <c r="O7">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="P7">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="Q7">
+        <v>1.295854304593111</v>
+      </c>
+      <c r="R7">
+        <v>11.662688741338</v>
+      </c>
+      <c r="S7">
+        <v>0.1395325571355926</v>
+      </c>
+      <c r="T7">
+        <v>0.1395325571355927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.66508</v>
+      </c>
+      <c r="I8">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J8">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.814284333333333</v>
+      </c>
+      <c r="N8">
+        <v>8.442852999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.7633363087964763</v>
+      </c>
+      <c r="P8">
+        <v>0.7633363087964762</v>
+      </c>
+      <c r="Q8">
+        <v>0.6239080748044444</v>
+      </c>
+      <c r="R8">
+        <v>5.61517267324</v>
+      </c>
+      <c r="S8">
+        <v>0.06717999761735835</v>
+      </c>
+      <c r="T8">
+        <v>0.06717999761735835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.196752963708953</v>
-      </c>
-      <c r="H5">
-        <v>0.196752963708953</v>
-      </c>
-      <c r="I5">
-        <v>0.09777292928161892</v>
-      </c>
-      <c r="J5">
-        <v>0.09777292928161892</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.415942362925928</v>
-      </c>
-      <c r="N5">
-        <v>0.415942362925928</v>
-      </c>
-      <c r="O5">
-        <v>0.1308905929457767</v>
-      </c>
-      <c r="P5">
-        <v>0.1308905929457767</v>
-      </c>
-      <c r="Q5">
-        <v>0.08183789263778128</v>
-      </c>
-      <c r="R5">
-        <v>0.08183789263778128</v>
-      </c>
-      <c r="S5">
-        <v>0.0127975566877166</v>
-      </c>
-      <c r="T5">
-        <v>0.0127975566877166</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.66508</v>
+      </c>
+      <c r="I9">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J9">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.04920481176963387</v>
+      </c>
+      <c r="P9">
+        <v>0.04920481176963386</v>
+      </c>
+      <c r="Q9">
+        <v>0.04021723980444444</v>
+      </c>
+      <c r="R9">
+        <v>0.36195515824</v>
+      </c>
+      <c r="S9">
+        <v>0.004330436138506698</v>
+      </c>
+      <c r="T9">
+        <v>0.004330436138506698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.66508</v>
+      </c>
+      <c r="I10">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J10">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6911273333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.073382</v>
+      </c>
+      <c r="O10">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="P10">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="Q10">
+        <v>0.1532183222844444</v>
+      </c>
+      <c r="R10">
+        <v>1.37896490056</v>
+      </c>
+      <c r="S10">
+        <v>0.01649795369170513</v>
+      </c>
+      <c r="T10">
+        <v>0.01649795369170513</v>
       </c>
     </row>
   </sheetData>
